--- a/EPAM_Task6/Resources/new2.xlsx
+++ b/EPAM_Task6/Resources/new2.xlsx
@@ -109,7 +109,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0">
-        <v>5</v>
+        <v>4.888888888888889</v>
       </c>
       <c r="D2" s="0">
         <v>8</v>
